--- a/document/expr10/st2/data analyse/분포.xlsx
+++ b/document/expr10/st2/data analyse/분포.xlsx
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="137">
   <si>
     <t>不成立</t>
   </si>
@@ -476,13 +476,163 @@
   </si>
   <si>
     <t>seturank</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>東京</t>
+  </si>
+  <si>
+    <t>山口</t>
+  </si>
+  <si>
+    <t>1 -0.56 0.636</t>
+  </si>
+  <si>
+    <t>2 -0.304 0.575</t>
+  </si>
+  <si>
+    <t>3 -0.134 0.534</t>
+  </si>
+  <si>
+    <t>4 -0.607 0.647</t>
+  </si>
+  <si>
+    <t>5 0.061 0.485</t>
+  </si>
+  <si>
+    <t>6 -0.442 0.609</t>
+  </si>
+  <si>
+    <t>7 -0.956 0.722</t>
+  </si>
+  <si>
+    <t>8 -0.058 0.515</t>
+  </si>
+  <si>
+    <t>9 -0.371 0.592</t>
+  </si>
+  <si>
+    <t>10 -0.654 0.658</t>
+  </si>
+  <si>
+    <t>11 0.298 0.426</t>
+  </si>
+  <si>
+    <t>12 0.873 0.295</t>
+  </si>
+  <si>
+    <t>13 -1.009 0.733</t>
+  </si>
+  <si>
+    <t>14 -0.375 0.593</t>
+  </si>
+  <si>
+    <t>15 -0.32 0.579</t>
+  </si>
+  <si>
+    <t>16 0.047 0.488</t>
+  </si>
+  <si>
+    <t>17 0.368 0.409</t>
+  </si>
+  <si>
+    <t>18 0.467 0.385</t>
+  </si>
+  <si>
+    <t>19 -0.255 0.563</t>
+  </si>
+  <si>
+    <t>20 -0.432 0.606</t>
+  </si>
+  <si>
+    <t>21 -0.119 0.53</t>
+  </si>
+  <si>
+    <t>22 -0.095 0.524</t>
+  </si>
+  <si>
+    <t>23 -0.174 0.543</t>
+  </si>
+  <si>
+    <t>24 0.116 0.471</t>
+  </si>
+  <si>
+    <t>1 -0.557 0.636</t>
+  </si>
+  <si>
+    <t>2 -0.319 0.579</t>
+  </si>
+  <si>
+    <t>3 -0.147 0.537</t>
+  </si>
+  <si>
+    <t>4 -0.625 0.651</t>
+  </si>
+  <si>
+    <t>5 0.047 0.488</t>
+  </si>
+  <si>
+    <t>6 -0.441 0.609</t>
+  </si>
+  <si>
+    <t>7 -0.964 0.724</t>
+  </si>
+  <si>
+    <t>8 -0.059 0.515</t>
+  </si>
+  <si>
+    <t>9 -0.391 0.597</t>
+  </si>
+  <si>
+    <t>10 -0.665 0.66</t>
+  </si>
+  <si>
+    <t>11 0.296 0.426</t>
+  </si>
+  <si>
+    <t>12 0.864 0.297</t>
+  </si>
+  <si>
+    <t>14 -0.398 0.598</t>
+  </si>
+  <si>
+    <t>15 -0.319 0.579</t>
+  </si>
+  <si>
+    <t>16 0.048 0.488</t>
+  </si>
+  <si>
+    <t>17 0.363 0.41</t>
+  </si>
+  <si>
+    <t>18 0.488 0.38</t>
+  </si>
+  <si>
+    <t>19 -0.262 0.565</t>
+  </si>
+  <si>
+    <t>20 -0.442 0.609</t>
+  </si>
+  <si>
+    <t>21 -0.142 0.535</t>
+  </si>
+  <si>
+    <t>22 -0.098 0.524</t>
+  </si>
+  <si>
+    <t>23 -0.179 0.545</t>
+  </si>
+  <si>
+    <t>24 0.113 0.472</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,6 +677,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -550,12 +707,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11898,10 +12058,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BN2"/>
+  <dimension ref="A1:BN35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AI9" sqref="AI9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12303,8 +12463,605 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3">
+        <v>201611230501</v>
+      </c>
+      <c r="L3">
+        <v>4945</v>
+      </c>
+      <c r="M3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N3">
+        <v>24</v>
+      </c>
+      <c r="O3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3">
+        <v>49</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>88</v>
+      </c>
+      <c r="R3">
+        <v>6.67</v>
+      </c>
+      <c r="S3">
+        <v>6</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0.19</v>
+      </c>
+      <c r="W3">
+        <v>6.86</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>34</v>
+      </c>
+      <c r="AE3">
+        <v>30.7</v>
+      </c>
+      <c r="AF3">
+        <v>171</v>
+      </c>
+      <c r="AG3">
+        <v>34.5</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI3">
+        <v>-0.999</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>-0.999</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>-0.999</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>-0.999</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>-0.999</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>-0.999</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>-0.999</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>-0.999</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>-0.999</v>
+      </c>
+      <c r="AZ3">
+        <v>412356</v>
+      </c>
+      <c r="BA3">
+        <v>431256</v>
+      </c>
+      <c r="BB3">
+        <v>431256</v>
+      </c>
+      <c r="BC3">
+        <v>431256</v>
+      </c>
+      <c r="BD3">
+        <v>412356</v>
+      </c>
+      <c r="BE3">
+        <v>124356</v>
+      </c>
+      <c r="BF3">
+        <v>412356</v>
+      </c>
+      <c r="BG3">
+        <v>156234</v>
+      </c>
+      <c r="BH3">
+        <v>123456</v>
+      </c>
+      <c r="BI3">
+        <v>156342</v>
+      </c>
+      <c r="BJ3">
+        <v>235164</v>
+      </c>
+      <c r="BK3">
+        <v>134526</v>
+      </c>
+      <c r="BL3">
+        <v>354126</v>
+      </c>
+      <c r="BM3">
+        <v>624513</v>
+      </c>
+      <c r="BN3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4">
+        <v>201805121901</v>
+      </c>
+      <c r="L4">
+        <v>5027</v>
+      </c>
+      <c r="M4" t="s">
+        <v>87</v>
+      </c>
+      <c r="N4">
+        <v>21</v>
+      </c>
+      <c r="O4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4">
+        <v>56</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>89</v>
+      </c>
+      <c r="R4">
+        <v>6.79</v>
+      </c>
+      <c r="S4">
+        <v>6</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0.2</v>
+      </c>
+      <c r="W4">
+        <v>6.99</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>28</v>
+      </c>
+      <c r="AE4">
+        <v>40</v>
+      </c>
+      <c r="AF4">
+        <v>15</v>
+      </c>
+      <c r="AG4">
+        <v>24.39</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI4">
+        <v>-0.999</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>-0.999</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>-0.999</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>-0.999</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>-0.999</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>-0.999</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>-0.999</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>-0.999</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>-0.999</v>
+      </c>
+      <c r="AZ4">
+        <v>123456</v>
+      </c>
+      <c r="BA4">
+        <v>415326</v>
+      </c>
+      <c r="BB4">
+        <v>412536</v>
+      </c>
+      <c r="BC4">
+        <v>415326</v>
+      </c>
+      <c r="BD4">
+        <v>342516</v>
+      </c>
+      <c r="BE4">
+        <v>324516</v>
+      </c>
+      <c r="BF4">
+        <v>435216</v>
+      </c>
+      <c r="BG4">
+        <v>563142</v>
+      </c>
+      <c r="BH4">
+        <v>563142</v>
+      </c>
+      <c r="BI4">
+        <v>162453</v>
+      </c>
+      <c r="BJ4">
+        <v>256341</v>
+      </c>
+      <c r="BK4">
+        <v>143256</v>
+      </c>
+      <c r="BL4">
+        <v>145326</v>
+      </c>
+      <c r="BM4">
+        <v>643251</v>
+      </c>
+      <c r="BN4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="AH12">
+        <f>1/0.36</f>
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="AI12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK12" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="AI13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK13" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="AI14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK14" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="AI15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK15" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="AI16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK16" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="35:37" x14ac:dyDescent="0.3">
+      <c r="AI17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK17" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="35:37" x14ac:dyDescent="0.3">
+      <c r="AI18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK18" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="35:37" x14ac:dyDescent="0.3">
+      <c r="AI19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK19" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="35:37" x14ac:dyDescent="0.3">
+      <c r="AI20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK20" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="35:37" x14ac:dyDescent="0.3">
+      <c r="AI21" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK21" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="35:37" x14ac:dyDescent="0.3">
+      <c r="AI22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK22" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="35:37" x14ac:dyDescent="0.3">
+      <c r="AI23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK23" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="35:37" x14ac:dyDescent="0.3">
+      <c r="AI24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK24" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="35:37" x14ac:dyDescent="0.3">
+      <c r="AI25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK25" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="35:37" x14ac:dyDescent="0.3">
+      <c r="AI26" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK26" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="35:37" x14ac:dyDescent="0.3">
+      <c r="AI27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK27" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="35:37" x14ac:dyDescent="0.3">
+      <c r="AI28" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK28" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="35:37" x14ac:dyDescent="0.3">
+      <c r="AI29" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK29" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="35:37" x14ac:dyDescent="0.3">
+      <c r="AI30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK30" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="35:37" x14ac:dyDescent="0.3">
+      <c r="AI31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK31" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="35:37" x14ac:dyDescent="0.3">
+      <c r="AI32" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK32" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="35:37" x14ac:dyDescent="0.3">
+      <c r="AI33" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK33" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="35:37" x14ac:dyDescent="0.3">
+      <c r="AI34" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK34" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="35:37" x14ac:dyDescent="0.3">
+      <c r="AI35" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK35" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>